--- a/stock/data/넷마블.xlsx
+++ b/stock/data/넷마블.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1695"/>
+  <dimension ref="A1:G1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39430,10 +39430,769 @@
         <v>62100</v>
       </c>
       <c r="F1695" t="n">
-        <v>76634</v>
+        <v>76840</v>
       </c>
       <c r="G1695" t="n">
         <v>-1.584786053882726</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>99482</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>3.059581320450886</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>63400</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>61600</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>78263</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>61600</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>58664</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>-2.11038961038961</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>61200</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>55592</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>-0.8291873963515755</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>113893</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>-3.511705685618729</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>57400</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>58500</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>61521</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>1.386481802426343</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>59400</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>72811</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1.538461538461539</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>59100</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>149461</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>-4.040404040404041</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>75012</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>-0.3508771929824561</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>56600</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>55600</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>60131</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>-2.112676056338028</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>54900</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>54900</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>91524</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>-1.258992805755396</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>55800</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>56900</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>71055</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>-0.7285974499089253</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>54700</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>54700</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>83932</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>2.935779816513762</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>55100</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>54300</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>110663</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>1.60427807486631</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>59100</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>58600</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>62585</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2.807017543859649</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>58700</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>55500</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>142359</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>-5.290102389078498</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>55600</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>56900</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>133918</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>2.522522522522523</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>55600</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>53100</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>373308</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>-6.678383128295255</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>53200</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>54800</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>53100</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>53300</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>92805</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>0.3766478342749529</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>54100</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>55700</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>53700</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>55500</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>115191</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>4.127579737335835</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>55500</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>55200</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>55900</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>114068</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>0.7207207207207207</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>55900</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>58500</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>55300</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>57300</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>131070</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>2.504472271914132</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>56400</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>90837</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>-1.221640488656195</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>57400</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>58500</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>57200</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>145007</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>2.473498233215548</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>59500</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>62600</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>58700</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>422968</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>4.655172413793104</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>65900</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>65900</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>64800</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>928384</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>6.754530477759473</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>72400</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>66500</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>1732775</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>7.098765432098765</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>69100</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>65100</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>490495</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>-6.195965417867435</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>64900</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>66200</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>62400</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>350594</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>-3.379416282642089</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>64400</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>197210</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1.271860095389507</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>64400</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>64300</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>65700</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>401296</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>3.139717425431711</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>205427</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>0.45662100456621</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>66100</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>65200</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>66200</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>216189</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>0.303030303030303</v>
       </c>
     </row>
   </sheetData>
